--- a/src/main/data/ciceronData.xlsx
+++ b/src/main/data/ciceronData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\bullshitWriter\src\main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375EF1EF-D43A-4F90-83E3-748CD6F73AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA91D0F-526B-490F-9832-A95695747858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1470" windowWidth="28800" windowHeight="18390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="2130" windowWidth="28800" windowHeight="18390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -709,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>17</v>
       </c>
@@ -755,7 +755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -778,7 +778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -801,7 +801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
